--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fgfr3</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H2">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I2">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J2">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N2">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q2">
-        <v>7.605959796018221</v>
+        <v>2.045460789334555</v>
       </c>
       <c r="R2">
-        <v>68.45363816416399</v>
+        <v>18.409147104011</v>
       </c>
       <c r="S2">
-        <v>0.08281294307963585</v>
+        <v>0.1267478755246613</v>
       </c>
       <c r="T2">
-        <v>0.112103918062581</v>
+        <v>0.1459308296261436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H3">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I3">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J3">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q3">
-        <v>0.910305544014</v>
+        <v>0.5771437864019999</v>
       </c>
       <c r="R3">
-        <v>8.192749896125999</v>
+        <v>5.194294077618</v>
       </c>
       <c r="S3">
-        <v>0.009911317338407836</v>
+        <v>0.03576296802174861</v>
       </c>
       <c r="T3">
-        <v>0.01341695471115717</v>
+        <v>0.04117559818422027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H4">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I4">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J4">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N4">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q4">
-        <v>0.8024923618188333</v>
+        <v>0.37584296716</v>
       </c>
       <c r="R4">
-        <v>4.814954170912999</v>
+        <v>2.25505780296</v>
       </c>
       <c r="S4">
-        <v>0.008737458001807504</v>
+        <v>0.02328927441034582</v>
       </c>
       <c r="T4">
-        <v>0.007885267201673587</v>
+        <v>0.01787602946413312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.458038666666666</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H5">
-        <v>7.374115999999999</v>
+        <v>2.632691</v>
       </c>
       <c r="I5">
-        <v>0.1801810554109115</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J5">
-        <v>0.2369096391566985</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.495057333333333</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>16.485172</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.8161989011161211</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P5">
-        <v>0.8403205285996808</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q5">
-        <v>13.50706340088355</v>
+        <v>0.04750281379788889</v>
       </c>
       <c r="R5">
-        <v>121.563570607952</v>
+        <v>0.427525324181</v>
       </c>
       <c r="S5">
-        <v>0.1470635794283289</v>
+        <v>0.002943532705060917</v>
       </c>
       <c r="T5">
-        <v>0.1990800332065165</v>
+        <v>0.00338902855691375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H6">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I6">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J6">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.657666</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N6">
-        <v>1.972998</v>
+        <v>6.992521</v>
       </c>
       <c r="O6">
-        <v>0.09768528951377062</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P6">
-        <v>0.1005722428790014</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q6">
-        <v>1.616568457752</v>
+        <v>5.729295665159555</v>
       </c>
       <c r="R6">
-        <v>14.549116119768</v>
+        <v>51.56366098643601</v>
       </c>
       <c r="S6">
-        <v>0.01760103856271164</v>
+        <v>0.3550183203696952</v>
       </c>
       <c r="T6">
-        <v>0.02382653376964406</v>
+        <v>0.4087493996216874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H7">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I7">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J7">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5797745</v>
+        <v>0.657666</v>
       </c>
       <c r="N7">
-        <v>1.159549</v>
+        <v>1.972998</v>
       </c>
       <c r="O7">
-        <v>0.08611580937010824</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P7">
-        <v>0.0591072285213179</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q7">
-        <v>1.425108138947333</v>
+        <v>1.616568457752</v>
       </c>
       <c r="R7">
-        <v>8.550648833683999</v>
+        <v>14.549116119768</v>
       </c>
       <c r="S7">
-        <v>0.01551643741987097</v>
+        <v>0.1001713739655223</v>
       </c>
       <c r="T7">
-        <v>0.01400307218053794</v>
+        <v>0.1153320451886794</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.458038666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.374116000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.5286672739959656</v>
+      </c>
+      <c r="J8">
+        <v>0.5836444564186148</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>9.799863999999999</v>
-      </c>
-      <c r="H8">
-        <v>19.599728</v>
-      </c>
-      <c r="I8">
-        <v>0.7183572261692374</v>
-      </c>
-      <c r="J8">
-        <v>0.6296842208678898</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.495057333333333</v>
+        <v>0.42828</v>
       </c>
       <c r="N8">
-        <v>16.485172</v>
+        <v>0.85656</v>
       </c>
       <c r="O8">
-        <v>0.8161989011161211</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P8">
-        <v>0.8403205285996808</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q8">
-        <v>53.85081453886932</v>
+        <v>1.05272880016</v>
       </c>
       <c r="R8">
-        <v>323.1048872332159</v>
+        <v>6.316372800960001</v>
       </c>
       <c r="S8">
-        <v>0.5863223786081564</v>
+        <v>0.06523280212441253</v>
       </c>
       <c r="T8">
-        <v>0.5291365773305833</v>
+        <v>0.05007040890402082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.799863999999999</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H9">
-        <v>19.599728</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I9">
-        <v>0.7183572261692374</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J9">
-        <v>0.6296842208678898</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.657666</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N9">
-        <v>1.972998</v>
+        <v>0.162391</v>
       </c>
       <c r="O9">
-        <v>0.09768528951377062</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P9">
-        <v>0.1005722428790014</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q9">
-        <v>6.445037357423999</v>
+        <v>0.1330544523728889</v>
       </c>
       <c r="R9">
-        <v>38.670224144544</v>
+        <v>1.197490071356</v>
       </c>
       <c r="S9">
-        <v>0.07017293361265114</v>
+        <v>0.008244777536335634</v>
       </c>
       <c r="T9">
-        <v>0.06332875439820017</v>
+        <v>0.009492602704227193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1030,46 +1033,232 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H10">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I10">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J10">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.330840333333333</v>
+      </c>
+      <c r="N10">
+        <v>6.992521</v>
+      </c>
+      <c r="O10">
+        <v>0.6715345129768794</v>
+      </c>
+      <c r="P10">
+        <v>0.7003397275969581</v>
+      </c>
+      <c r="Q10">
+        <v>3.062486452286</v>
+      </c>
+      <c r="R10">
+        <v>18.374918713716</v>
+      </c>
+      <c r="S10">
+        <v>0.1897683170825228</v>
+      </c>
+      <c r="T10">
+        <v>0.1456594983491271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.5797745</v>
-      </c>
-      <c r="N10">
-        <v>1.159549</v>
-      </c>
-      <c r="O10">
-        <v>0.08611580937010824</v>
-      </c>
-      <c r="P10">
-        <v>0.0591072285213179</v>
-      </c>
-      <c r="Q10">
-        <v>5.681711250667999</v>
-      </c>
-      <c r="R10">
-        <v>22.726845002672</v>
-      </c>
-      <c r="S10">
-        <v>0.06186191394842977</v>
-      </c>
-      <c r="T10">
-        <v>0.03721888913910638</v>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.313898</v>
+      </c>
+      <c r="H11">
+        <v>2.627796</v>
+      </c>
+      <c r="I11">
+        <v>0.2825890753422177</v>
+      </c>
+      <c r="J11">
+        <v>0.2079840577499744</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.657666</v>
+      </c>
+      <c r="N11">
+        <v>1.972998</v>
+      </c>
+      <c r="O11">
+        <v>0.1894790521235985</v>
+      </c>
+      <c r="P11">
+        <v>0.1976066831789769</v>
+      </c>
+      <c r="Q11">
+        <v>0.864106042068</v>
+      </c>
+      <c r="R11">
+        <v>5.184636252408001</v>
+      </c>
+      <c r="S11">
+        <v>0.05354471013632758</v>
+      </c>
+      <c r="T11">
+        <v>0.04109903980607724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.313898</v>
+      </c>
+      <c r="H12">
+        <v>2.627796</v>
+      </c>
+      <c r="I12">
+        <v>0.2825890753422177</v>
+      </c>
+      <c r="J12">
+        <v>0.2079840577499744</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.42828</v>
+      </c>
+      <c r="N12">
+        <v>0.85656</v>
+      </c>
+      <c r="O12">
+        <v>0.123391035029171</v>
+      </c>
+      <c r="P12">
+        <v>0.08578923067523865</v>
+      </c>
+      <c r="Q12">
+        <v>0.56271623544</v>
+      </c>
+      <c r="R12">
+        <v>2.25086494176</v>
+      </c>
+      <c r="S12">
+        <v>0.03486895849441263</v>
+      </c>
+      <c r="T12">
+        <v>0.01784279230708471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.313898</v>
+      </c>
+      <c r="H13">
+        <v>2.627796</v>
+      </c>
+      <c r="I13">
+        <v>0.2825890753422177</v>
+      </c>
+      <c r="J13">
+        <v>0.2079840577499744</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.162391</v>
+      </c>
+      <c r="O13">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P13">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q13">
+        <v>0.071121736706</v>
+      </c>
+      <c r="R13">
+        <v>0.426730420236</v>
+      </c>
+      <c r="S13">
+        <v>0.004407089628954704</v>
+      </c>
+      <c r="T13">
+        <v>0.003382727287685385</v>
       </c>
     </row>
   </sheetData>
